--- a/biology/Botanique/Alphitonia_marquesensis/Alphitonia_marquesensis.xlsx
+++ b/biology/Botanique/Alphitonia_marquesensis/Alphitonia_marquesensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alphitonia marquesensis est une espèce de plantes à fleurs du genre Alphitonia et de la famille des Rhamnaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alphitonia marquesensis est un arbre qui peut atteindre une hauteur de plus de 20 mètres[2]. Elle possède des graines et des fruits[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alphitonia marquesensis est un arbre qui peut atteindre une hauteur de plus de 20 mètres. Elle possède des graines et des fruits.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alphitonia marquesensis est endémique des îles Marquises[3].
-Elle est présente dans la forêt humide[3] des vallons et ravins[4], les forêts mésophiles de basse et moyenne altitude[5].
-L'espèce se régénérerait en bordure ou en sous-bois de plantations de pins des Caraïbes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alphitonia marquesensis est endémique des îles Marquises.
+Elle est présente dans la forêt humide des vallons et ravins, les forêts mésophiles de basse et moyenne altitude.
+L'espèce se régénérerait en bordure ou en sous-bois de plantations de pins des Caraïbes.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Union internationale pour la conservation de la nature ne considère pas Alphitonia marquesensis comme une espèce menacée alors que le comité français l'estime comme une espèce en danger[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Union internationale pour la conservation de la nature ne considère pas Alphitonia marquesensis comme une espèce menacée alors que le comité français l'estime comme une espèce en danger.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les troncs droits servaient pour des pirogues[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les troncs droits servaient pour des pirogues.
 </t>
         </is>
       </c>
